--- a/app/static/sheet4.xlsx
+++ b/app/static/sheet4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A7199-525D-9548-9515-9E498B21AEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51202C2-EDBC-3D47-B341-9577CE5F2D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,40 +1186,40 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,8 +1559,8 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="23"/>
@@ -1586,75 +1586,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="40"/>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="V1" s="50" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="V1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="50"/>
+      <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="54" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
-      <c r="Q3" s="53" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="Q3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="48" t="s">
+      <c r="R3" s="51"/>
+      <c r="S3" s="45" t="s">
         <v>25</v>
       </c>
       <c r="V3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1701,16 +1701,14 @@
       <c r="R4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="48"/>
+      <c r="S4" s="45"/>
       <c r="V4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="45" customHeight="1">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
+      <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -1737,9 +1735,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="5" customFormat="1" ht="45" customHeight="1">
-      <c r="A6" s="16">
-        <v>2</v>
-      </c>
+      <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
@@ -1766,9 +1762,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="45" customHeight="1">
-      <c r="A7" s="16">
-        <v>3</v>
-      </c>
+      <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
@@ -1795,9 +1789,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1">
-      <c r="A8" s="16">
-        <v>4</v>
-      </c>
+      <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
@@ -1824,9 +1816,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="5" customFormat="1" ht="45" customHeight="1">
-      <c r="A9" s="16">
-        <v>5</v>
-      </c>
+      <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -1853,9 +1843,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" s="5" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A10" s="16">
-        <v>6</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
@@ -1882,9 +1870,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
-      <c r="A11" s="16">
-        <v>7</v>
-      </c>
+      <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -1911,9 +1897,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="45" customHeight="1">
-      <c r="A12" s="16">
-        <v>8</v>
-      </c>
+      <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
@@ -1940,9 +1924,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="45" customHeight="1">
-      <c r="A13" s="16">
-        <v>9</v>
-      </c>
+      <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
@@ -1969,9 +1951,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="45" customHeight="1">
-      <c r="A14" s="16">
-        <v>10</v>
-      </c>
+      <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
@@ -1998,9 +1978,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="45" customHeight="1">
-      <c r="A15" s="16">
-        <v>11</v>
-      </c>
+      <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
@@ -2027,9 +2005,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="45" customHeight="1">
-      <c r="A16" s="16">
-        <v>12</v>
-      </c>
+      <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
@@ -2056,9 +2032,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" s="5" customFormat="1" ht="45" customHeight="1">
-      <c r="A17" s="16">
-        <v>13</v>
-      </c>
+      <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
@@ -2085,9 +2059,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="45" customHeight="1">
-      <c r="A18" s="16">
-        <v>14</v>
-      </c>
+      <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
@@ -2114,9 +2086,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="45" customHeight="1">
-      <c r="A19" s="16">
-        <v>15</v>
-      </c>
+      <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -2143,9 +2113,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="45" customHeight="1">
-      <c r="A20" s="16">
-        <v>16</v>
-      </c>
+      <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
@@ -2172,9 +2140,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" s="5" customFormat="1" ht="45" customHeight="1">
-      <c r="A21" s="16">
-        <v>17</v>
-      </c>
+      <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
@@ -2201,9 +2167,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="45" customHeight="1">
-      <c r="A22" s="16">
-        <v>18</v>
-      </c>
+      <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -2230,9 +2194,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="45" customHeight="1">
-      <c r="A23" s="16">
-        <v>19</v>
-      </c>
+      <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
@@ -2259,9 +2221,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="86.25" customHeight="1">
-      <c r="A24" s="16">
-        <v>20</v>
-      </c>
+      <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
@@ -2288,9 +2248,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="45" customHeight="1">
-      <c r="A25" s="16">
-        <v>21</v>
-      </c>
+      <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
@@ -2317,9 +2275,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="45" customHeight="1">
-      <c r="A26" s="16">
-        <v>22</v>
-      </c>
+      <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
@@ -2346,9 +2302,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="45" customHeight="1">
-      <c r="A27" s="16">
-        <v>23</v>
-      </c>
+      <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
@@ -2375,9 +2329,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="45" customHeight="1">
-      <c r="A28" s="16">
-        <v>24</v>
-      </c>
+      <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -2404,9 +2356,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="45" customHeight="1">
-      <c r="A29" s="16">
-        <v>25</v>
-      </c>
+      <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
@@ -2433,9 +2383,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="45" customHeight="1">
-      <c r="A30" s="16">
-        <v>26</v>
-      </c>
+      <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
@@ -2462,9 +2410,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="45" customHeight="1">
-      <c r="A31" s="16">
-        <v>27</v>
-      </c>
+      <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
@@ -2491,9 +2437,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="45" customHeight="1">
-      <c r="A32" s="16">
-        <v>28</v>
-      </c>
+      <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
@@ -2520,9 +2464,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="45" customHeight="1">
-      <c r="A33" s="16">
-        <v>29</v>
-      </c>
+      <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
@@ -2549,9 +2491,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="45" customHeight="1">
-      <c r="A34" s="16">
-        <v>30</v>
-      </c>
+      <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
@@ -2578,9 +2518,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="45" customHeight="1">
-      <c r="A35" s="16">
-        <v>31</v>
-      </c>
+      <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
@@ -2607,9 +2545,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="45" customHeight="1">
-      <c r="A36" s="16">
-        <v>32</v>
-      </c>
+      <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
@@ -2636,9 +2572,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="45" customHeight="1">
-      <c r="A37" s="16">
-        <v>33</v>
-      </c>
+      <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -2665,9 +2599,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="45" customHeight="1">
-      <c r="A38" s="16">
-        <v>34</v>
-      </c>
+      <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
